--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE4F0E4-ED3E-4B4B-85CF-DB4341E1D9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2330AF73-AA8C-40ED-819F-145FBD93532C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulAwakeTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,22 @@
   </si>
   <si>
     <t>8000고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,11 +673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -704,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:B53" si="0">B2*10</f>
+        <f t="shared" ref="B3:B57" si="0">B2*10</f>
         <v>7.9999999999999994E+93</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1462,6 +1478,66 @@
       </c>
       <c r="D53" s="7">
         <v>240000000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000016E+144</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="7">
+        <v>250000000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000021E+145</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="7">
+        <v>260000000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000012E+146</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="7">
+        <v>270000000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000012E+147</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="7">
+        <v>280000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2330AF73-AA8C-40ED-819F-145FBD93532C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE24EDA-2B60-4794-B82B-6F4DE14C5CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulAwakeTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,22 @@
   </si>
   <si>
     <t>8000화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,11 +689,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -720,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:B57" si="0">B2*10</f>
+        <f t="shared" ref="B3:B61" si="0">B2*10</f>
         <v>7.9999999999999994E+93</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1538,6 +1554,66 @@
       </c>
       <c r="D57" s="7">
         <v>280000000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000015E+148</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="7">
+        <v>290000000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000013E+149</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="7">
+        <v>300000000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000013E+150</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="7">
+        <v>310000000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000013E+151</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="7">
+        <v>320000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE24EDA-2B60-4794-B82B-6F4DE14C5CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B176B02A-68D1-45A6-B44F-C41E8AAD2D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,22 @@
   </si>
   <si>
     <t>8000명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,11 +705,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -736,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:B61" si="0">B2*10</f>
+        <f t="shared" ref="B3:B65" si="0">B2*10</f>
         <v>7.9999999999999994E+93</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1614,6 +1630,66 @@
       </c>
       <c r="D61" s="7">
         <v>320000000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000013E+152</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="7">
+        <v>330000000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000015E+153</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="7">
+        <v>340000000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000015E+154</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="7">
+        <v>350000000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3">
+        <f t="shared" si="0"/>
+        <v>8.000000000000001E+155</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="7">
+        <v>360000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B176B02A-68D1-45A6-B44F-C41E8AAD2D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D231D8-29D5-4B2A-B994-F42F81EB2B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulAwakeTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,22 @@
   </si>
   <si>
     <t>8000월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,11 +721,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -752,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:B65" si="0">B2*10</f>
+        <f t="shared" ref="B3:B66" si="0">B2*10</f>
         <v>7.9999999999999994E+93</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1690,6 +1706,66 @@
       </c>
       <c r="D65" s="7">
         <v>360000000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000014E+156</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="7">
+        <v>370000000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3">
+        <f t="shared" ref="B67:B69" si="1">B66*10</f>
+        <v>8.0000000000000011E+157</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="7">
+        <v>380000000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000006E+158</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="7">
+        <v>390000000000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3">
+        <f t="shared" si="1"/>
+        <v>8.000000000000001E+159</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="7">
+        <v>400000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D231D8-29D5-4B2A-B994-F42F81EB2B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EF55A9-4098-4E04-8C43-DBAA3563015E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulAwakeTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +273,22 @@
   </si>
   <si>
     <t>8000후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,11 +737,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1728,7 +1744,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" ref="B67:B69" si="1">B66*10</f>
+        <f t="shared" ref="B67:B73" si="1">B66*10</f>
         <v>8.0000000000000011E+157</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -1766,6 +1782,66 @@
       </c>
       <c r="D69" s="7">
         <v>400000000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000013E+160</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" s="7">
+        <v>410000000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000013E+161</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="7">
+        <v>420000000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000011E+162</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" s="7">
+        <v>430000000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000008E+163</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" s="7">
+        <v>440000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EF55A9-4098-4E04-8C43-DBAA3563015E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09694CDB-FF3B-4CB1-B450-C89E42EAABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,6 +289,22 @@
   </si>
   <si>
     <t>8000단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,11 +753,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1744,7 +1760,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" ref="B67:B73" si="1">B66*10</f>
+        <f t="shared" ref="B67:B77" si="1">B66*10</f>
         <v>8.0000000000000011E+157</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -1842,6 +1858,66 @@
       </c>
       <c r="D73" s="7">
         <v>440000000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3">
+        <f t="shared" si="1"/>
+        <v>8.000000000000001E+164</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" s="7">
+        <v>450000000000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000008E+165</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="7">
+        <v>460000000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000008E+166</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="7">
+        <v>470000000000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000003E+167</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="7">
+        <v>480000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09694CDB-FF3B-4CB1-B450-C89E42EAABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBEF358-46A2-44C9-8EE0-DA5539209AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulAwakeTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +305,22 @@
   </si>
   <si>
     <t>8000절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -753,11 +769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1760,7 +1776,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" ref="B67:B77" si="1">B66*10</f>
+        <f t="shared" ref="B67:B81" si="1">B66*10</f>
         <v>8.0000000000000011E+157</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -1918,6 +1934,66 @@
       </c>
       <c r="D77" s="7">
         <v>480000000000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999995E+168</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" s="7">
+        <v>490000000000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999995E+169</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="7">
+        <v>500000000000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999992E+170</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="7">
+        <v>510000000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999996E+171</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" s="7">
+        <v>520000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBEF358-46A2-44C9-8EE0-DA5539209AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43399A7-DC1F-4677-B4FF-9AA521DE5475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulAwakeTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,6 +321,38 @@
   </si>
   <si>
     <t>8000격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,11 +801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1776,7 +1808,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" ref="B67:B81" si="1">B66*10</f>
+        <f t="shared" ref="B67:B89" si="1">B66*10</f>
         <v>8.0000000000000011E+157</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -1994,6 +2026,126 @@
       </c>
       <c r="D81" s="7">
         <v>520000000000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999993E+172</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" s="7">
+        <v>530000000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3">
+        <f t="shared" si="1"/>
+        <v>7.999999999999999E+173</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" s="7">
+        <v>540000000000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999988E+174</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" s="7">
+        <v>550000000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>83</v>
+      </c>
+      <c r="B85" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999995E+175</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85" s="7">
+        <v>560000000000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000001E+176</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" s="7">
+        <v>570000000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000001E+177</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" s="7">
+        <v>580000000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000004E+178</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" s="7">
+        <v>590000000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>87</v>
+      </c>
+      <c r="B89" s="3">
+        <f t="shared" si="1"/>
+        <v>8.000000000000001E+179</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" s="7">
+        <v>600000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43399A7-DC1F-4677-B4FF-9AA521DE5475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAF356A-8E05-4213-8FE7-1996FD6D7D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,6 +353,38 @@
   </si>
   <si>
     <t>8000공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,11 +833,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1808,7 +1840,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" ref="B67:B89" si="1">B66*10</f>
+        <f t="shared" ref="B67:B97" si="1">B66*10</f>
         <v>8.0000000000000011E+157</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -2146,6 +2178,126 @@
       </c>
       <c r="D89" s="7">
         <v>600000000000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3">
+        <f t="shared" si="1"/>
+        <v>8.000000000000001E+180</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90" s="7">
+        <v>610000000000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>89</v>
+      </c>
+      <c r="B91" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000008E+181</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" s="7">
+        <v>620000000000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000005E+182</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92" s="7">
+        <v>630000000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>91</v>
+      </c>
+      <c r="B93" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000005E+183</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="7">
+        <v>640000000000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000001E+184</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D94" s="7">
+        <v>650000000000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999998E+185</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" s="7">
+        <v>660000000000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999998E+186</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" s="7">
+        <v>670000000000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999993E+187</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" s="7">
+        <v>680000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAF356A-8E05-4213-8FE7-1996FD6D7D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9037A63E-F5D7-461B-A26F-5072B1AAC3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,19 +372,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000연</t>
+    <t>8피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -833,11 +849,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1840,7 +1856,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" ref="B67:B97" si="1">B66*10</f>
+        <f t="shared" ref="B67:B101" si="1">B66*10</f>
         <v>8.0000000000000011E+157</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -2298,6 +2314,66 @@
       </c>
       <c r="D97" s="7">
         <v>680000000000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999989E+188</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D98" s="7">
+        <v>690000000000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999992E+189</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D99" s="7">
+        <v>700000000000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3">
+        <f t="shared" si="1"/>
+        <v>7.999999999999999E+190</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" s="7">
+        <v>710000000000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999993E+191</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101" s="7">
+        <v>720000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9037A63E-F5D7-461B-A26F-5072B1AAC3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB679283-7EEC-4257-B928-34B0B7CD2F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +401,22 @@
   </si>
   <si>
     <t>8000동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000멸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,11 +865,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1856,7 +1872,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" ref="B67:B101" si="1">B66*10</f>
+        <f t="shared" ref="B67:B105" si="1">B66*10</f>
         <v>8.0000000000000011E+157</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -2374,6 +2390,66 @@
       </c>
       <c r="D101" s="7">
         <v>720000000000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999993E+192</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" s="7">
+        <v>730000000000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>101</v>
+      </c>
+      <c r="B103" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999989E+193</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" s="7">
+        <v>740000000000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999983E+194</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104" s="7">
+        <v>750000000000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999988E+195</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D105" s="7">
+        <v>760000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB679283-7EEC-4257-B928-34B0B7CD2F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2555EF26-CFEC-4BC7-86F5-A4D17A7A828B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulAwakeTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +417,38 @@
   </si>
   <si>
     <t>8000멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,11 +897,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1872,7 +1904,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" ref="B67:B105" si="1">B66*10</f>
+        <f t="shared" ref="B67:B113" si="1">B66*10</f>
         <v>8.0000000000000011E+157</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -2450,6 +2482,126 @@
       </c>
       <c r="D105" s="7">
         <v>760000000000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999996E+196</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D106" s="7">
+        <v>770000000000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>105</v>
+      </c>
+      <c r="B107" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999996E+197</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D107" s="7">
+        <v>780000000000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999991E+198</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D108" s="7">
+        <v>790000000000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>107</v>
+      </c>
+      <c r="B109" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999991E+199</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D109" s="7">
+        <v>800000000000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999998E+200</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D110" s="7">
+        <v>810000000000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>109</v>
+      </c>
+      <c r="B111" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999992E+201</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D111" s="7">
+        <v>820000000000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>110</v>
+      </c>
+      <c r="B112" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999992E+202</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D112" s="7">
+        <v>830000000000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>111</v>
+      </c>
+      <c r="B113" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999999E+203</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D113" s="7">
+        <v>840000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2555EF26-CFEC-4BC7-86F5-A4D17A7A828B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A009F892-38BD-4558-B764-065C90F47CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulAwakeTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,6 +449,22 @@
   </si>
   <si>
     <t>8000증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000쾌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -897,11 +913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1904,7 +1920,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" ref="B67:B113" si="1">B66*10</f>
+        <f t="shared" ref="B67:B117" si="1">B66*10</f>
         <v>8.0000000000000011E+157</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -2602,6 +2618,66 @@
       </c>
       <c r="D113" s="7">
         <v>840000000000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>112</v>
+      </c>
+      <c r="B114" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999999E+204</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D114" s="7">
+        <v>850000000000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>113</v>
+      </c>
+      <c r="B115" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000001E+205</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115" s="7">
+        <v>860000000000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>114</v>
+      </c>
+      <c r="B116" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000003E+206</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D116" s="7">
+        <v>870000000000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>115</v>
+      </c>
+      <c r="B117" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000003E+207</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D117" s="7">
+        <v>880000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A009F892-38BD-4558-B764-065C90F47CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE01479-D1D4-41CA-A636-39850624FEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,6 +465,22 @@
   </si>
   <si>
     <t>8000쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,11 +929,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1920,7 +1936,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" ref="B67:B117" si="1">B66*10</f>
+        <f t="shared" ref="B67:B121" si="1">B66*10</f>
         <v>8.0000000000000011E+157</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -2678,6 +2694,66 @@
       </c>
       <c r="D117" s="7">
         <v>880000000000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>116</v>
+      </c>
+      <c r="B118" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999999E+208</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D118" s="7">
+        <v>890000000000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>117</v>
+      </c>
+      <c r="B119" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000006E+209</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D119" s="7">
+        <v>900000000000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>118</v>
+      </c>
+      <c r="B120" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000006E+210</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D120" s="7">
+        <v>910000000000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>119</v>
+      </c>
+      <c r="B121" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000006E+211</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D121" s="7">
+        <v>920000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE01479-D1D4-41CA-A636-39850624FEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE17EC96-2AFD-426A-B783-29695CFBF410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,6 +481,22 @@
   </si>
   <si>
     <t>8000우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000팽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,9 +649,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -673,7 +689,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -779,7 +795,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -921,7 +937,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -929,11 +945,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
+      <selection pane="bottomLeft" activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1936,7 +1952,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" ref="B67:B121" si="1">B66*10</f>
+        <f t="shared" ref="B67:B125" si="1">B66*10</f>
         <v>8.0000000000000011E+157</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -2754,6 +2770,66 @@
       </c>
       <c r="D121" s="7">
         <v>920000000000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>120</v>
+      </c>
+      <c r="B122" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000008E+212</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D122" s="7">
+        <v>930000000000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>121</v>
+      </c>
+      <c r="B123" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000011E+213</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D123" s="7">
+        <v>940000000000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>122</v>
+      </c>
+      <c r="B124" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000015E+214</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D124" s="7">
+        <v>950000000000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>123</v>
+      </c>
+      <c r="B125" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000008E+215</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D125" s="7">
+        <v>960000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE17EC96-2AFD-426A-B783-29695CFBF410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41C84FE-1802-402B-B295-8A3458629C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulAwakeTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,6 +497,38 @@
   </si>
   <si>
     <t>8000팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -945,11 +977,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C126" sqref="C126"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1952,7 +1984,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" ref="B67:B125" si="1">B66*10</f>
+        <f t="shared" ref="B67:B130" si="1">B66*10</f>
         <v>8.0000000000000011E+157</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -2830,6 +2862,126 @@
       </c>
       <c r="D125" s="7">
         <v>960000000000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>124</v>
+      </c>
+      <c r="B126" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000002E+216</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D126" s="7">
+        <v>970000000000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>125</v>
+      </c>
+      <c r="B127" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000007E+217</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D127" s="7">
+        <v>980000000000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>126</v>
+      </c>
+      <c r="B128" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000007E+218</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D128" s="7">
+        <v>990000000000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>127</v>
+      </c>
+      <c r="B129" s="3">
+        <f t="shared" si="1"/>
+        <v>8.000000000000001E+219</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D129" s="7">
+        <v>1000000000000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>128</v>
+      </c>
+      <c r="B130" s="3">
+        <f t="shared" si="1"/>
+        <v>8.000000000000001E+220</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D130" s="7">
+        <v>1010000000000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>129</v>
+      </c>
+      <c r="B131" s="3">
+        <f t="shared" ref="B131:B133" si="2">B130*10</f>
+        <v>8.0000000000000004E+221</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D131" s="7">
+        <v>1020000000000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>130</v>
+      </c>
+      <c r="B132" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000004E+222</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D132" s="7">
+        <v>1030000000000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>131</v>
+      </c>
+      <c r="B133" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000004E+223</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D133" s="7">
+        <v>1040000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41C84FE-1802-402B-B295-8A3458629C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C778D3F0-545D-423B-BE72-CBEDA9240EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulAwakeTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,6 +529,22 @@
   </si>
   <si>
     <t>8000한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000혈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -977,11 +993,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
+      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2944,7 +2960,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3">
-        <f t="shared" ref="B131:B133" si="2">B130*10</f>
+        <f t="shared" ref="B131:B137" si="2">B130*10</f>
         <v>8.0000000000000004E+221</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -2982,6 +2998,66 @@
       </c>
       <c r="D133" s="7">
         <v>1040000000000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>132</v>
+      </c>
+      <c r="B134" s="3">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999998E+224</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D134" s="7">
+        <v>1050000000000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>133</v>
+      </c>
+      <c r="B135" s="3">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999994E+225</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D135" s="7">
+        <v>1060000000000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>134</v>
+      </c>
+      <c r="B136" s="3">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999997E+226</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D136" s="7">
+        <v>1070000000000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>135</v>
+      </c>
+      <c r="B137" s="3">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999991E+227</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D137" s="7">
+        <v>1080000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C778D3F0-545D-423B-BE72-CBEDA9240EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CA6A60-CCE9-40EA-9B74-1DD31AD8E3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -545,6 +545,22 @@
   </si>
   <si>
     <t>8000혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,11 +1009,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2960,7 +2976,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3">
-        <f t="shared" ref="B131:B137" si="2">B130*10</f>
+        <f t="shared" ref="B131:B141" si="2">B130*10</f>
         <v>8.0000000000000004E+221</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -3058,6 +3074,66 @@
       </c>
       <c r="D137" s="7">
         <v>1080000000000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>136</v>
+      </c>
+      <c r="B138" s="3">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999994E+228</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D138" s="7">
+        <v>1090000000000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>137</v>
+      </c>
+      <c r="B139" s="3">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999999E+229</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D139" s="7">
+        <v>1100000000000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>138</v>
+      </c>
+      <c r="B140" s="3">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999991E+230</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D140" s="7">
+        <v>1110000000000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>139</v>
+      </c>
+      <c r="B141" s="3">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999991E+231</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D141" s="7">
+        <v>1120000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CA6A60-CCE9-40EA-9B74-1DD31AD8E3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F021E1A-0E5D-4E53-878B-93ED483B84A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,6 +561,22 @@
   </si>
   <si>
     <t>8000연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000난</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1009,11 +1025,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2976,7 +2992,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3">
-        <f t="shared" ref="B131:B141" si="2">B130*10</f>
+        <f t="shared" ref="B131:B145" si="2">B130*10</f>
         <v>8.0000000000000004E+221</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -3134,6 +3150,66 @@
       </c>
       <c r="D141" s="7">
         <v>1120000000000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>140</v>
+      </c>
+      <c r="B142" s="3">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999993E+232</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D142" s="7">
+        <v>1130000000000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>141</v>
+      </c>
+      <c r="B143" s="3">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999998E+233</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D143" s="7">
+        <v>1140000000000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>142</v>
+      </c>
+      <c r="B144" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000001E+234</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D144" s="7">
+        <v>1150000000000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>143</v>
+      </c>
+      <c r="B145" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000004E+235</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D145" s="7">
+        <v>1160000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F021E1A-0E5D-4E53-878B-93ED483B84A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3D3DC4-A265-4070-9703-470187F11DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,6 +577,22 @@
   </si>
   <si>
     <t>8000난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1025,11 +1041,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C145" sqref="C145"/>
+      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2992,7 +3008,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3">
-        <f t="shared" ref="B131:B145" si="2">B130*10</f>
+        <f t="shared" ref="B131:B149" si="2">B130*10</f>
         <v>8.0000000000000004E+221</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -3210,6 +3226,66 @@
       </c>
       <c r="D145" s="7">
         <v>1160000000000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>144</v>
+      </c>
+      <c r="B146" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000004E+236</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D146" s="7">
+        <v>1170000000000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>145</v>
+      </c>
+      <c r="B147" s="3">
+        <f t="shared" si="2"/>
+        <v>8.000000000000001E+237</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D147" s="7">
+        <v>1180000000000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>146</v>
+      </c>
+      <c r="B148" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000004E+238</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D148" s="7">
+        <v>1190000000000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>147</v>
+      </c>
+      <c r="B149" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000009E+239</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D149" s="7">
+        <v>1200000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3D3DC4-A265-4070-9703-470187F11DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649B0EA5-6BE6-4F76-9AD3-D142207139B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,6 +593,22 @@
   </si>
   <si>
     <t>8000군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1041,11 +1057,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
+      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3008,7 +3024,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3">
-        <f t="shared" ref="B131:B149" si="2">B130*10</f>
+        <f t="shared" ref="B131:B153" si="2">B130*10</f>
         <v>8.0000000000000004E+221</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -3286,6 +3302,66 @@
       </c>
       <c r="D149" s="7">
         <v>1200000000000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>148</v>
+      </c>
+      <c r="B150" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000016E+240</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D150" s="7">
+        <v>1210000000000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>149</v>
+      </c>
+      <c r="B151" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000016E+241</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D151" s="7">
+        <v>1220000000000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>150</v>
+      </c>
+      <c r="B152" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000014E+242</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D152" s="7">
+        <v>1230000000000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>151</v>
+      </c>
+      <c r="B153" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000006E+243</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D153" s="7">
+        <v>1240000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649B0EA5-6BE6-4F76-9AD3-D142207139B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E8DE63-9C3E-43BA-8C8B-177E8E42387C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,6 +609,22 @@
   </si>
   <si>
     <t>8000결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000맥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1057,11 +1073,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3024,7 +3040,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3">
-        <f t="shared" ref="B131:B153" si="2">B130*10</f>
+        <f t="shared" ref="B131:B157" si="2">B130*10</f>
         <v>8.0000000000000004E+221</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -3362,6 +3378,66 @@
       </c>
       <c r="D153" s="7">
         <v>1240000000000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>152</v>
+      </c>
+      <c r="B154" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000006E+244</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D154" s="7">
+        <v>1250000000000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>153</v>
+      </c>
+      <c r="B155" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000004E+245</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D155" s="7">
+        <v>1260000000000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>154</v>
+      </c>
+      <c r="B156" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000005E+246</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D156" s="7">
+        <v>1270000000000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>155</v>
+      </c>
+      <c r="B157" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000009E+247</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D157" s="7">
+        <v>1280000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E8DE63-9C3E-43BA-8C8B-177E8E42387C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59804B49-CF5D-42B7-9BF3-C010E1A0C4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -625,6 +625,22 @@
   </si>
   <si>
     <t>8000맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1073,11 +1089,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D157"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D156" sqref="D156"/>
+      <selection pane="bottomLeft" activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3040,7 +3056,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3">
-        <f t="shared" ref="B131:B157" si="2">B130*10</f>
+        <f t="shared" ref="B131:B161" si="2">B130*10</f>
         <v>8.0000000000000004E+221</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -3438,6 +3454,66 @@
       </c>
       <c r="D157" s="7">
         <v>1280000000000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>156</v>
+      </c>
+      <c r="B158" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000014E+248</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D158" s="7">
+        <v>1290000000000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>157</v>
+      </c>
+      <c r="B159" s="3">
+        <f t="shared" si="2"/>
+        <v>8.000000000000001E+249</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D159" s="7">
+        <v>1300000000000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>158</v>
+      </c>
+      <c r="B160" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000006E+250</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D160" s="7">
+        <v>1310000000000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>159</v>
+      </c>
+      <c r="B161" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000004E+251</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D161" s="7">
+        <v>1320000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59804B49-CF5D-42B7-9BF3-C010E1A0C4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27CE664-8F19-462B-8994-B472C3C93BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -641,6 +641,22 @@
   </si>
   <si>
     <t>8000토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,11 +1105,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C158" sqref="C158"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3056,7 +3072,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3">
-        <f t="shared" ref="B131:B161" si="2">B130*10</f>
+        <f t="shared" ref="B131:B165" si="2">B130*10</f>
         <v>8.0000000000000004E+221</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -3514,6 +3530,66 @@
       </c>
       <c r="D161" s="7">
         <v>1320000000000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>160</v>
+      </c>
+      <c r="B162" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000008E+252</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D162" s="7">
+        <v>1330000000000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>161</v>
+      </c>
+      <c r="B163" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000008E+253</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D163" s="7">
+        <v>1340000000000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>162</v>
+      </c>
+      <c r="B164" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000005E+254</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D164" s="7">
+        <v>1350000000000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>163</v>
+      </c>
+      <c r="B165" s="3">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999999E+255</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D165" s="7">
+        <v>1360000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DosulAwakeTable.xlsx
+++ b/Assets/06.Table/DosulAwakeTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27CE664-8F19-462B-8994-B472C3C93BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E81266C-F4D6-4F4C-BE8B-D780D3F549CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -657,6 +657,54 @@
   </si>
   <si>
     <t>8000산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000종</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,11 +1153,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B162" sqref="B162"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3072,7 +3120,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3">
-        <f t="shared" ref="B131:B165" si="2">B130*10</f>
+        <f t="shared" ref="B131:B177" si="2">B130*10</f>
         <v>8.0000000000000004E+221</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -3590,6 +3638,186 @@
       </c>
       <c r="D165" s="7">
         <v>1360000000000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>164</v>
+      </c>
+      <c r="B166" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000002E+256</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D166" s="7">
+        <v>1370000000000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>165</v>
+      </c>
+      <c r="B167" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000002E+257</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D167" s="7">
+        <v>1380000000000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>166</v>
+      </c>
+      <c r="B168" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000005E+258</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D168" s="7">
+        <v>1390000000000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>167</v>
+      </c>
+      <c r="B169" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000008E+259</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D169" s="7">
+        <v>1400000000000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>168</v>
+      </c>
+      <c r="B170" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000005E+260</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D170" s="7">
+        <v>1410000000000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>169</v>
+      </c>
+      <c r="B171" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000012E+261</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D171" s="7">
+        <v>1420000000000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>170</v>
+      </c>
+      <c r="B172" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000015E+262</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D172" s="7">
+        <v>1430000000000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>171</v>
+      </c>
+      <c r="B173" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000012E+263</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D173" s="7">
+        <v>1440000000000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>172</v>
+      </c>
+      <c r="B174" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000012E+264</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D174" s="7">
+        <v>1450000000000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>173</v>
+      </c>
+      <c r="B175" s="3">
+        <f t="shared" si="2"/>
+        <v>8.000000000000002E+265</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D175" s="7">
+        <v>1460000000000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>174</v>
+      </c>
+      <c r="B176" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000025E+266</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D176" s="7">
+        <v>1470000000000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>175</v>
+      </c>
+      <c r="B177" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000025E+267</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D177" s="7">
+        <v>1480000000000</v>
       </c>
     </row>
   </sheetData>
